--- a/log_forward_backward/forward_report.xlsx
+++ b/log_forward_backward/forward_report.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
@@ -490,13 +490,13 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>423.05</v>
+        <v>422.95</v>
       </c>
       <c r="F2" t="n">
-        <v>579.0700000000001</v>
+        <v>1000.19</v>
       </c>
       <c r="G2" t="n">
-        <v>536.6900000000001</v>
+        <v>874.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>4096</v>
@@ -513,13 +513,13 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>387.48</v>
+        <v>413.12</v>
       </c>
       <c r="F3" t="n">
-        <v>820.22</v>
+        <v>765.01</v>
       </c>
       <c r="G3" t="n">
-        <v>572.23</v>
+        <v>727.8200000000001</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>4096</v>
@@ -536,13 +536,13 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>407.46</v>
+        <v>409.78</v>
       </c>
       <c r="F4" t="n">
-        <v>1803.64</v>
+        <v>1038.37</v>
       </c>
       <c r="G4" t="n">
-        <v>770.74</v>
+        <v>1566.32</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>8192</v>
@@ -559,13 +559,13 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>369.92</v>
+        <v>421.52</v>
       </c>
       <c r="F5" t="n">
-        <v>945.6799999999999</v>
+        <v>1627.72</v>
       </c>
       <c r="G5" t="n">
-        <v>1023.94</v>
+        <v>1015.51</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>8192</v>
@@ -582,13 +582,13 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>423.11</v>
+        <v>462.03</v>
       </c>
       <c r="F6" t="n">
-        <v>1199.01</v>
+        <v>1418.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1154.8</v>
+        <v>1651.9</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>8192</v>
@@ -605,13 +605,13 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>464.77</v>
+        <v>478.41</v>
       </c>
       <c r="F7" t="n">
-        <v>1615.3</v>
+        <v>1424</v>
       </c>
       <c r="G7" t="n">
-        <v>1512.86</v>
+        <v>1404.4</v>
       </c>
     </row>
     <row r="8">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>16384</v>
@@ -628,13 +628,13 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>510.97</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1679.94</v>
+        <v>2268.81</v>
       </c>
       <c r="G8" t="n">
-        <v>1604.97</v>
+        <v>4493.83</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>16384</v>
@@ -651,13 +651,13 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>572.5</v>
+        <v>624.53</v>
       </c>
       <c r="F9" t="n">
-        <v>1798.09</v>
+        <v>2132.52</v>
       </c>
       <c r="G9" t="n">
-        <v>2927.48</v>
+        <v>3855.62</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
@@ -674,13 +674,13 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>602.14</v>
+        <v>631.11</v>
       </c>
       <c r="F10" t="n">
-        <v>1882.55</v>
+        <v>2176.31</v>
       </c>
       <c r="G10" t="n">
-        <v>2452.63</v>
+        <v>3750.43</v>
       </c>
     </row>
     <row r="11">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
@@ -697,13 +697,13 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1023.69</v>
+        <v>859.6900000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>5382.45</v>
+        <v>5287.3</v>
       </c>
       <c r="G11" t="n">
-        <v>5591.3</v>
+        <v>7335.79</v>
       </c>
     </row>
     <row r="12">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>32768</v>
@@ -720,13 +720,13 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>1210.06</v>
+        <v>938.4</v>
       </c>
       <c r="F12" t="n">
-        <v>4732.14</v>
+        <v>4108.92</v>
       </c>
       <c r="G12" t="n">
-        <v>8410.700000000001</v>
+        <v>12409.61</v>
       </c>
     </row>
     <row r="13">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>32768</v>
@@ -743,13 +743,13 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>869.97</v>
+        <v>991.9299999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>4014.69</v>
+        <v>4125.13</v>
       </c>
       <c r="G13" t="n">
-        <v>8315.68</v>
+        <v>12292.64</v>
       </c>
     </row>
     <row r="14">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>65536</v>
@@ -766,13 +766,13 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>1471.58</v>
+        <v>1374.73</v>
       </c>
       <c r="F14" t="n">
-        <v>6327.3</v>
+        <v>6869.75</v>
       </c>
       <c r="G14" t="n">
-        <v>15137.31</v>
+        <v>28860.25</v>
       </c>
     </row>
     <row r="15">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>65536</v>
@@ -789,13 +789,13 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>1399.2</v>
+        <v>1571.14</v>
       </c>
       <c r="F15" t="n">
-        <v>7552.1</v>
+        <v>6945.8</v>
       </c>
       <c r="G15" t="n">
-        <v>24742.81</v>
+        <v>43110.14</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>65536</v>
@@ -812,13 +812,13 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>1450.09</v>
+        <v>1665.53</v>
       </c>
       <c r="F16" t="n">
-        <v>7739.3</v>
+        <v>8455.120000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>22935.9</v>
+        <v>43000.49</v>
       </c>
     </row>
     <row r="17">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>131072</v>
@@ -835,13 +835,13 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>3542.63</v>
+        <v>2544</v>
       </c>
       <c r="F17" t="n">
-        <v>13280.39</v>
+        <v>12891.12</v>
       </c>
       <c r="G17" t="n">
-        <v>51574.38</v>
+        <v>101772.68</v>
       </c>
     </row>
     <row r="18">
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>131072</v>
@@ -858,13 +858,13 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>4343.89</v>
+        <v>2905.41</v>
       </c>
       <c r="F18" t="n">
-        <v>13164.22</v>
+        <v>14458.77</v>
       </c>
       <c r="G18" t="n">
-        <v>83453.92999999999</v>
+        <v>167975.78</v>
       </c>
     </row>
     <row r="19">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
@@ -881,13 +881,13 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>2994.37</v>
+        <v>3046.04</v>
       </c>
       <c r="F19" t="n">
-        <v>14020.09</v>
+        <v>15310.73</v>
       </c>
       <c r="G19" t="n">
-        <v>88426.37</v>
+        <v>170647.08</v>
       </c>
     </row>
     <row r="20">
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>4096</v>
@@ -904,13 +904,13 @@
         <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>352.14</v>
+        <v>472.98</v>
       </c>
       <c r="F20" t="n">
-        <v>1000.19</v>
+        <v>857.1</v>
       </c>
       <c r="G20" t="n">
-        <v>874.05</v>
+        <v>615.6</v>
       </c>
     </row>
     <row r="21">
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>4096</v>
@@ -927,13 +927,13 @@
         <v>96</v>
       </c>
       <c r="E21" t="n">
-        <v>388.51</v>
+        <v>422.61</v>
       </c>
       <c r="F21" t="n">
-        <v>765.01</v>
+        <v>711.03</v>
       </c>
       <c r="G21" t="n">
-        <v>727.8200000000001</v>
+        <v>824.9400000000001</v>
       </c>
     </row>
     <row r="22">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>4096</v>
@@ -950,13 +950,13 @@
         <v>128</v>
       </c>
       <c r="E22" t="n">
-        <v>366.22</v>
+        <v>371.54</v>
       </c>
       <c r="F22" t="n">
-        <v>1038.37</v>
+        <v>813.1900000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1566.32</v>
+        <v>1458.99</v>
       </c>
     </row>
     <row r="23">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>8192</v>
@@ -973,13 +973,13 @@
         <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>399.05</v>
+        <v>472.11</v>
       </c>
       <c r="F23" t="n">
-        <v>1627.72</v>
+        <v>1101.27</v>
       </c>
       <c r="G23" t="n">
-        <v>1015.51</v>
+        <v>1872.81</v>
       </c>
     </row>
     <row r="24">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>8192</v>
@@ -996,13 +996,13 @@
         <v>96</v>
       </c>
       <c r="E24" t="n">
-        <v>387.11</v>
+        <v>519.29</v>
       </c>
       <c r="F24" t="n">
-        <v>1418.8</v>
+        <v>1312.93</v>
       </c>
       <c r="G24" t="n">
-        <v>1651.9</v>
+        <v>2543.91</v>
       </c>
     </row>
     <row r="25">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>8192</v>
@@ -1019,13 +1019,13 @@
         <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>441.38</v>
+        <v>518.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1424</v>
+        <v>1271.38</v>
       </c>
       <c r="G25" t="n">
-        <v>1404.4</v>
+        <v>2409.39</v>
       </c>
     </row>
     <row r="26">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>16384</v>
@@ -1042,13 +1042,13 @@
         <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>522.24</v>
+        <v>668.48</v>
       </c>
       <c r="F26" t="n">
-        <v>2268.81</v>
+        <v>1856.35</v>
       </c>
       <c r="G26" t="n">
-        <v>4493.83</v>
+        <v>4084.74</v>
       </c>
     </row>
     <row r="27">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>16384</v>
@@ -1065,13 +1065,13 @@
         <v>96</v>
       </c>
       <c r="E27" t="n">
-        <v>764.9299999999999</v>
+        <v>682.64</v>
       </c>
       <c r="F27" t="n">
-        <v>2132.52</v>
+        <v>2462.57</v>
       </c>
       <c r="G27" t="n">
-        <v>3855.62</v>
+        <v>8729.540000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>16384</v>
@@ -1088,13 +1088,13 @@
         <v>128</v>
       </c>
       <c r="E28" t="n">
-        <v>1035.61</v>
+        <v>772.6</v>
       </c>
       <c r="F28" t="n">
-        <v>2176.31</v>
+        <v>2455.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3750.43</v>
+        <v>6222.37</v>
       </c>
     </row>
     <row r="29">
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>32768</v>
@@ -1111,13 +1111,13 @@
         <v>64</v>
       </c>
       <c r="E29" t="n">
-        <v>879.86</v>
+        <v>920.6900000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>5287.3</v>
+        <v>3833.93</v>
       </c>
       <c r="G29" t="n">
-        <v>7335.79</v>
+        <v>13192.63</v>
       </c>
     </row>
     <row r="30">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>32768</v>
@@ -1134,13 +1134,13 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>1350.82</v>
+        <v>1045.87</v>
       </c>
       <c r="F30" t="n">
-        <v>4108.92</v>
+        <v>6345.68</v>
       </c>
       <c r="G30" t="n">
-        <v>12409.61</v>
+        <v>22139.54</v>
       </c>
     </row>
     <row r="31">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>32768</v>
@@ -1157,13 +1157,13 @@
         <v>128</v>
       </c>
       <c r="E31" t="n">
-        <v>1017.57</v>
+        <v>1183.63</v>
       </c>
       <c r="F31" t="n">
-        <v>4125.13</v>
+        <v>3893.59</v>
       </c>
       <c r="G31" t="n">
-        <v>12292.64</v>
+        <v>21635.53</v>
       </c>
     </row>
     <row r="32">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>65536</v>
@@ -1180,13 +1180,13 @@
         <v>64</v>
       </c>
       <c r="E32" t="n">
-        <v>2282.18</v>
+        <v>1650.76</v>
       </c>
       <c r="F32" t="n">
-        <v>6869.75</v>
+        <v>9214.129999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>28860.25</v>
+        <v>50100.58</v>
       </c>
     </row>
     <row r="33">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
         <v>65536</v>
@@ -1203,13 +1203,13 @@
         <v>96</v>
       </c>
       <c r="E33" t="n">
-        <v>2426.33</v>
+        <v>1888.21</v>
       </c>
       <c r="F33" t="n">
-        <v>6945.8</v>
+        <v>8227.049999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>43110.14</v>
+        <v>82781.8</v>
       </c>
     </row>
     <row r="34">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>65536</v>
@@ -1226,13 +1226,13 @@
         <v>128</v>
       </c>
       <c r="E34" t="n">
-        <v>2861.15</v>
+        <v>2175.52</v>
       </c>
       <c r="F34" t="n">
-        <v>8455.120000000001</v>
+        <v>10054.29</v>
       </c>
       <c r="G34" t="n">
-        <v>43000.49</v>
+        <v>83656.92999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="n">
         <v>131072</v>
@@ -1249,13 +1249,13 @@
         <v>64</v>
       </c>
       <c r="E35" t="n">
-        <v>2961.5</v>
+        <v>2928.81</v>
       </c>
       <c r="F35" t="n">
-        <v>12891.12</v>
+        <v>13152.35</v>
       </c>
       <c r="G35" t="n">
-        <v>101772.68</v>
+        <v>203124.14</v>
       </c>
     </row>
     <row r="36">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
         <v>131072</v>
@@ -1272,13 +1272,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="n">
-        <v>3299.87</v>
+        <v>3494.25</v>
       </c>
       <c r="F36" t="n">
-        <v>14458.77</v>
+        <v>15520.04</v>
       </c>
       <c r="G36" t="n">
-        <v>167975.78</v>
+        <v>332142.95</v>
       </c>
     </row>
     <row r="37">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>131072</v>
@@ -1295,13 +1295,13 @@
         <v>128</v>
       </c>
       <c r="E37" t="n">
-        <v>3559.18</v>
+        <v>4082.79</v>
       </c>
       <c r="F37" t="n">
-        <v>15310.73</v>
+        <v>18328.72</v>
       </c>
       <c r="G37" t="n">
-        <v>170647.08</v>
+        <v>337346.75</v>
       </c>
     </row>
     <row r="38">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
         <v>4096</v>
@@ -1318,13 +1318,13 @@
         <v>64</v>
       </c>
       <c r="E38" t="n">
-        <v>441.69</v>
+        <v>421.42</v>
       </c>
       <c r="F38" t="n">
-        <v>857.1</v>
+        <v>647.77</v>
       </c>
       <c r="G38" t="n">
-        <v>615.6</v>
+        <v>738.9400000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>4096</v>
@@ -1341,13 +1341,13 @@
         <v>96</v>
       </c>
       <c r="E39" t="n">
-        <v>425.31</v>
+        <v>373.8</v>
       </c>
       <c r="F39" t="n">
-        <v>711.03</v>
+        <v>888.9</v>
       </c>
       <c r="G39" t="n">
-        <v>824.9400000000001</v>
+        <v>1062.55</v>
       </c>
     </row>
     <row r="40">
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>4096</v>
@@ -1364,13 +1364,13 @@
         <v>128</v>
       </c>
       <c r="E40" t="n">
-        <v>449.75</v>
+        <v>455.7</v>
       </c>
       <c r="F40" t="n">
-        <v>813.1900000000001</v>
+        <v>1043.23</v>
       </c>
       <c r="G40" t="n">
-        <v>1458.99</v>
+        <v>1026.25</v>
       </c>
     </row>
     <row r="41">
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>8192</v>
@@ -1387,13 +1387,13 @@
         <v>64</v>
       </c>
       <c r="E41" t="n">
-        <v>470.22</v>
+        <v>481.21</v>
       </c>
       <c r="F41" t="n">
-        <v>1101.27</v>
+        <v>1294.19</v>
       </c>
       <c r="G41" t="n">
-        <v>1872.81</v>
+        <v>1711.79</v>
       </c>
     </row>
     <row r="42">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>8192</v>
@@ -1410,13 +1410,13 @@
         <v>96</v>
       </c>
       <c r="E42" t="n">
-        <v>486.83</v>
+        <v>532.26</v>
       </c>
       <c r="F42" t="n">
-        <v>1312.93</v>
+        <v>1183.78</v>
       </c>
       <c r="G42" t="n">
-        <v>2543.91</v>
+        <v>2597.45</v>
       </c>
     </row>
     <row r="43">
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>8192</v>
@@ -1433,13 +1433,13 @@
         <v>128</v>
       </c>
       <c r="E43" t="n">
-        <v>530.26</v>
+        <v>577.85</v>
       </c>
       <c r="F43" t="n">
-        <v>1271.38</v>
+        <v>1261.8</v>
       </c>
       <c r="G43" t="n">
-        <v>2409.39</v>
+        <v>2588.69</v>
       </c>
     </row>
     <row r="44">
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>16384</v>
@@ -1456,13 +1456,13 @@
         <v>64</v>
       </c>
       <c r="E44" t="n">
-        <v>734.67</v>
+        <v>668.38</v>
       </c>
       <c r="F44" t="n">
-        <v>1856.35</v>
+        <v>1968.62</v>
       </c>
       <c r="G44" t="n">
-        <v>4084.74</v>
+        <v>5437.22</v>
       </c>
     </row>
     <row r="45">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
         <v>16384</v>
@@ -1479,13 +1479,13 @@
         <v>96</v>
       </c>
       <c r="E45" t="n">
-        <v>802.6799999999999</v>
+        <v>735.4299999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>2462.57</v>
+        <v>2519.25</v>
       </c>
       <c r="G45" t="n">
-        <v>8729.540000000001</v>
+        <v>8591.700000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>16384</v>
@@ -1502,13 +1502,13 @@
         <v>128</v>
       </c>
       <c r="E46" t="n">
-        <v>1004.92</v>
+        <v>830.85</v>
       </c>
       <c r="F46" t="n">
-        <v>2455.3</v>
+        <v>3533.11</v>
       </c>
       <c r="G46" t="n">
-        <v>6222.37</v>
+        <v>8635.35</v>
       </c>
     </row>
     <row r="47">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>32768</v>
@@ -1525,13 +1525,13 @@
         <v>64</v>
       </c>
       <c r="E47" t="n">
-        <v>1268.64</v>
+        <v>1067.52</v>
       </c>
       <c r="F47" t="n">
-        <v>3833.93</v>
+        <v>3464.37</v>
       </c>
       <c r="G47" t="n">
-        <v>13192.63</v>
+        <v>18956.18</v>
       </c>
     </row>
     <row r="48">
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>32768</v>
@@ -1548,13 +1548,13 @@
         <v>96</v>
       </c>
       <c r="E48" t="n">
-        <v>1154.24</v>
+        <v>1197.94</v>
       </c>
       <c r="F48" t="n">
-        <v>6345.68</v>
+        <v>4032.67</v>
       </c>
       <c r="G48" t="n">
-        <v>22139.54</v>
+        <v>30716.77</v>
       </c>
     </row>
     <row r="49">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>32768</v>
@@ -1571,13 +1571,13 @@
         <v>128</v>
       </c>
       <c r="E49" t="n">
-        <v>1929.08</v>
+        <v>1459.75</v>
       </c>
       <c r="F49" t="n">
-        <v>3893.59</v>
+        <v>4468.42</v>
       </c>
       <c r="G49" t="n">
-        <v>21635.53</v>
+        <v>31155.46</v>
       </c>
     </row>
     <row r="50">
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>65536</v>
@@ -1594,13 +1594,13 @@
         <v>64</v>
       </c>
       <c r="E50" t="n">
-        <v>2220.75</v>
+        <v>1757.97</v>
       </c>
       <c r="F50" t="n">
-        <v>9214.129999999999</v>
+        <v>7537.78</v>
       </c>
       <c r="G50" t="n">
-        <v>50100.58</v>
+        <v>74948.22</v>
       </c>
     </row>
     <row r="51">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
         <v>65536</v>
@@ -1617,13 +1617,13 @@
         <v>96</v>
       </c>
       <c r="E51" t="n">
-        <v>2059.2</v>
+        <v>2164.36</v>
       </c>
       <c r="F51" t="n">
-        <v>8227.049999999999</v>
+        <v>11073.59</v>
       </c>
       <c r="G51" t="n">
-        <v>82781.8</v>
+        <v>122586.25</v>
       </c>
     </row>
     <row r="52">
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
         <v>65536</v>
@@ -1640,13 +1640,13 @@
         <v>128</v>
       </c>
       <c r="E52" t="n">
-        <v>3159.04</v>
+        <v>2655.68</v>
       </c>
       <c r="F52" t="n">
-        <v>10054.29</v>
+        <v>11726.39</v>
       </c>
       <c r="G52" t="n">
-        <v>83656.92999999999</v>
+        <v>126683.89</v>
       </c>
     </row>
     <row r="53">
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
         <v>131072</v>
@@ -1663,13 +1663,13 @@
         <v>64</v>
       </c>
       <c r="E53" t="n">
-        <v>2937.44</v>
+        <v>3289.12</v>
       </c>
       <c r="F53" t="n">
-        <v>13152.35</v>
+        <v>13610.45</v>
       </c>
       <c r="G53" t="n">
-        <v>203124.14</v>
+        <v>303725.16</v>
       </c>
     </row>
     <row r="54">
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
         <v>131072</v>
@@ -1686,13 +1686,13 @@
         <v>96</v>
       </c>
       <c r="E54" t="n">
-        <v>4667.57</v>
+        <v>4216.73</v>
       </c>
       <c r="F54" t="n">
-        <v>15520.04</v>
+        <v>18612.3</v>
       </c>
       <c r="G54" t="n">
-        <v>332142.95</v>
+        <v>494616.31</v>
       </c>
     </row>
     <row r="55">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
         <v>131072</v>
@@ -1709,13 +1709,13 @@
         <v>128</v>
       </c>
       <c r="E55" t="n">
-        <v>6784.33</v>
+        <v>5036.18</v>
       </c>
       <c r="F55" t="n">
-        <v>18328.72</v>
+        <v>17268.7</v>
       </c>
       <c r="G55" t="n">
-        <v>337346.75</v>
+        <v>511285.37</v>
       </c>
     </row>
     <row r="56">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
         <v>4096</v>
@@ -1732,13 +1732,13 @@
         <v>64</v>
       </c>
       <c r="E56" t="n">
-        <v>400.85</v>
+        <v>387.07</v>
       </c>
       <c r="F56" t="n">
-        <v>647.77</v>
+        <v>651.35</v>
       </c>
       <c r="G56" t="n">
-        <v>738.9400000000001</v>
+        <v>825.5700000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>4096</v>
@@ -1755,13 +1755,13 @@
         <v>96</v>
       </c>
       <c r="E57" t="n">
-        <v>605.54</v>
+        <v>443.48</v>
       </c>
       <c r="F57" t="n">
-        <v>888.9</v>
+        <v>1311.85</v>
       </c>
       <c r="G57" t="n">
-        <v>1062.55</v>
+        <v>1324.54</v>
       </c>
     </row>
     <row r="58">
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
         <v>4096</v>
@@ -1778,13 +1778,13 @@
         <v>128</v>
       </c>
       <c r="E58" t="n">
-        <v>546.26</v>
+        <v>433.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1043.23</v>
+        <v>833.59</v>
       </c>
       <c r="G58" t="n">
-        <v>1026.25</v>
+        <v>1128.33</v>
       </c>
     </row>
     <row r="59">
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
         <v>8192</v>
@@ -1801,13 +1801,13 @@
         <v>64</v>
       </c>
       <c r="E59" t="n">
-        <v>499.16</v>
+        <v>477.78</v>
       </c>
       <c r="F59" t="n">
-        <v>1294.19</v>
+        <v>1615.92</v>
       </c>
       <c r="G59" t="n">
-        <v>1711.79</v>
+        <v>2789.68</v>
       </c>
     </row>
     <row r="60">
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
         <v>8192</v>
@@ -1824,13 +1824,13 @@
         <v>96</v>
       </c>
       <c r="E60" t="n">
-        <v>495.11</v>
+        <v>579.33</v>
       </c>
       <c r="F60" t="n">
-        <v>1183.78</v>
+        <v>2163.52</v>
       </c>
       <c r="G60" t="n">
-        <v>2597.45</v>
+        <v>3528.56</v>
       </c>
     </row>
     <row r="61">
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
         <v>8192</v>
@@ -1847,13 +1847,13 @@
         <v>128</v>
       </c>
       <c r="E61" t="n">
-        <v>585.47</v>
+        <v>626.05</v>
       </c>
       <c r="F61" t="n">
-        <v>1261.8</v>
+        <v>1657.31</v>
       </c>
       <c r="G61" t="n">
-        <v>2588.69</v>
+        <v>3214.77</v>
       </c>
     </row>
     <row r="62">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>16384</v>
@@ -1870,13 +1870,13 @@
         <v>64</v>
       </c>
       <c r="E62" t="n">
-        <v>996.89</v>
+        <v>661.71</v>
       </c>
       <c r="F62" t="n">
-        <v>1968.62</v>
+        <v>1908.54</v>
       </c>
       <c r="G62" t="n">
-        <v>5437.22</v>
+        <v>7523.51</v>
       </c>
     </row>
     <row r="63">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>16384</v>
@@ -1893,13 +1893,13 @@
         <v>96</v>
       </c>
       <c r="E63" t="n">
-        <v>954.61</v>
+        <v>879.34</v>
       </c>
       <c r="F63" t="n">
-        <v>2519.25</v>
+        <v>3203.42</v>
       </c>
       <c r="G63" t="n">
-        <v>8591.700000000001</v>
+        <v>11107.63</v>
       </c>
     </row>
     <row r="64">
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>16384</v>
@@ -1916,13 +1916,13 @@
         <v>128</v>
       </c>
       <c r="E64" t="n">
-        <v>951.55</v>
+        <v>978.73</v>
       </c>
       <c r="F64" t="n">
-        <v>3533.11</v>
+        <v>3512.12</v>
       </c>
       <c r="G64" t="n">
-        <v>8635.35</v>
+        <v>10998.65</v>
       </c>
     </row>
     <row r="65">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>32768</v>
@@ -1939,13 +1939,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>1854.51</v>
+        <v>1119.69</v>
       </c>
       <c r="F65" t="n">
-        <v>3464.37</v>
+        <v>5120.32</v>
       </c>
       <c r="G65" t="n">
-        <v>18956.18</v>
+        <v>25388.84</v>
       </c>
     </row>
     <row r="66">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
         <v>32768</v>
@@ -1962,13 +1962,13 @@
         <v>96</v>
       </c>
       <c r="E66" t="n">
-        <v>1254.02</v>
+        <v>1464.08</v>
       </c>
       <c r="F66" t="n">
-        <v>4032.67</v>
+        <v>4604.01</v>
       </c>
       <c r="G66" t="n">
-        <v>30716.77</v>
+        <v>40612.61</v>
       </c>
     </row>
     <row r="67">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
         <v>32768</v>
@@ -1985,13 +1985,13 @@
         <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>1457.39</v>
+        <v>1708.11</v>
       </c>
       <c r="F67" t="n">
-        <v>4468.42</v>
+        <v>4928.12</v>
       </c>
       <c r="G67" t="n">
-        <v>31155.46</v>
+        <v>40321.8</v>
       </c>
     </row>
     <row r="68">
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
         <v>65536</v>
@@ -2008,13 +2008,13 @@
         <v>64</v>
       </c>
       <c r="E68" t="n">
-        <v>2972.04</v>
+        <v>1959.4</v>
       </c>
       <c r="F68" t="n">
-        <v>7537.78</v>
+        <v>7185.6</v>
       </c>
       <c r="G68" t="n">
-        <v>74948.22</v>
+        <v>100961.21</v>
       </c>
     </row>
     <row r="69">
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
         <v>65536</v>
@@ -2031,13 +2031,13 @@
         <v>96</v>
       </c>
       <c r="E69" t="n">
-        <v>2373.6</v>
+        <v>2613.46</v>
       </c>
       <c r="F69" t="n">
-        <v>11073.59</v>
+        <v>8973.1</v>
       </c>
       <c r="G69" t="n">
-        <v>122586.25</v>
+        <v>165426.01</v>
       </c>
     </row>
     <row r="70">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
         <v>65536</v>
@@ -2054,13 +2054,13 @@
         <v>128</v>
       </c>
       <c r="E70" t="n">
-        <v>2778.2</v>
+        <v>3147.48</v>
       </c>
       <c r="F70" t="n">
-        <v>11726.39</v>
+        <v>10718.11</v>
       </c>
       <c r="G70" t="n">
-        <v>126683.89</v>
+        <v>165772.47</v>
       </c>
     </row>
     <row r="71">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
         <v>131072</v>
@@ -2077,13 +2077,13 @@
         <v>64</v>
       </c>
       <c r="E71" t="n">
-        <v>3359.45</v>
+        <v>3606.32</v>
       </c>
       <c r="F71" t="n">
-        <v>13610.45</v>
+        <v>14188.37</v>
       </c>
       <c r="G71" t="n">
-        <v>303725.16</v>
+        <v>409891.17</v>
       </c>
     </row>
     <row r="72">
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
         <v>131072</v>
@@ -2100,13 +2100,13 @@
         <v>96</v>
       </c>
       <c r="E72" t="n">
-        <v>5052</v>
+        <v>5040.26</v>
       </c>
       <c r="F72" t="n">
-        <v>18612.3</v>
+        <v>17919.47</v>
       </c>
       <c r="G72" t="n">
-        <v>494616.31</v>
+        <v>663660.33</v>
       </c>
     </row>
     <row r="73">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" t="n">
         <v>131072</v>
@@ -2123,13 +2123,13 @@
         <v>128</v>
       </c>
       <c r="E73" t="n">
-        <v>10594.12</v>
+        <v>6230.83</v>
       </c>
       <c r="F73" t="n">
-        <v>17268.7</v>
+        <v>18758.81</v>
       </c>
       <c r="G73" t="n">
-        <v>511285.37</v>
+        <v>672400.27</v>
       </c>
     </row>
     <row r="74">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C74" t="n">
         <v>4096</v>
@@ -2146,13 +2146,13 @@
         <v>64</v>
       </c>
       <c r="E74" t="n">
-        <v>395.03</v>
+        <v>461.7</v>
       </c>
       <c r="F74" t="n">
-        <v>651.35</v>
+        <v>631.63</v>
       </c>
       <c r="G74" t="n">
-        <v>825.5700000000001</v>
+        <v>1259.67</v>
       </c>
     </row>
     <row r="75">
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
         <v>4096</v>
@@ -2169,13 +2169,13 @@
         <v>96</v>
       </c>
       <c r="E75" t="n">
-        <v>413.43</v>
+        <v>548.72</v>
       </c>
       <c r="F75" t="n">
-        <v>1311.85</v>
+        <v>1423.04</v>
       </c>
       <c r="G75" t="n">
-        <v>1324.54</v>
+        <v>1919.27</v>
       </c>
     </row>
     <row r="76">
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
         <v>4096</v>
@@ -2192,13 +2192,13 @@
         <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>495.87</v>
+        <v>578.66</v>
       </c>
       <c r="F76" t="n">
-        <v>833.59</v>
+        <v>1607.48</v>
       </c>
       <c r="G76" t="n">
-        <v>1128.33</v>
+        <v>2191.23</v>
       </c>
     </row>
     <row r="77">
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
         <v>8192</v>
@@ -2215,13 +2215,13 @@
         <v>64</v>
       </c>
       <c r="E77" t="n">
-        <v>491.15</v>
+        <v>568.65</v>
       </c>
       <c r="F77" t="n">
-        <v>1615.92</v>
+        <v>1065.2</v>
       </c>
       <c r="G77" t="n">
-        <v>2789.68</v>
+        <v>3851.33</v>
       </c>
     </row>
     <row r="78">
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C78" t="n">
         <v>8192</v>
@@ -2238,13 +2238,13 @@
         <v>96</v>
       </c>
       <c r="E78" t="n">
-        <v>540.14</v>
+        <v>759.3200000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>2163.52</v>
+        <v>3146.75</v>
       </c>
       <c r="G78" t="n">
-        <v>3528.56</v>
+        <v>6445.52</v>
       </c>
     </row>
     <row r="79">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C79" t="n">
         <v>8192</v>
@@ -2261,13 +2261,13 @@
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>708.46</v>
+        <v>922.49</v>
       </c>
       <c r="F79" t="n">
-        <v>1657.31</v>
+        <v>2124.62</v>
       </c>
       <c r="G79" t="n">
-        <v>3214.77</v>
+        <v>5692.42</v>
       </c>
     </row>
     <row r="80">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
         <v>16384</v>
@@ -2284,13 +2284,13 @@
         <v>64</v>
       </c>
       <c r="E80" t="n">
-        <v>1056.78</v>
+        <v>894.3</v>
       </c>
       <c r="F80" t="n">
-        <v>1908.54</v>
+        <v>2562.22</v>
       </c>
       <c r="G80" t="n">
-        <v>7523.51</v>
+        <v>12946.45</v>
       </c>
     </row>
     <row r="81">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C81" t="n">
         <v>16384</v>
@@ -2307,13 +2307,13 @@
         <v>96</v>
       </c>
       <c r="E81" t="n">
-        <v>985.7</v>
+        <v>1241.91</v>
       </c>
       <c r="F81" t="n">
-        <v>3203.42</v>
+        <v>3295.5</v>
       </c>
       <c r="G81" t="n">
-        <v>11107.63</v>
+        <v>20866.56</v>
       </c>
     </row>
     <row r="82">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C82" t="n">
         <v>16384</v>
@@ -2330,13 +2330,13 @@
         <v>128</v>
       </c>
       <c r="E82" t="n">
-        <v>1310.73</v>
+        <v>1500.29</v>
       </c>
       <c r="F82" t="n">
-        <v>3512.12</v>
+        <v>4099.15</v>
       </c>
       <c r="G82" t="n">
-        <v>10998.65</v>
+        <v>20390.2</v>
       </c>
     </row>
     <row r="83">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C83" t="n">
         <v>32768</v>
@@ -2353,13 +2353,13 @@
         <v>64</v>
       </c>
       <c r="E83" t="n">
-        <v>2024.2</v>
+        <v>1510.45</v>
       </c>
       <c r="F83" t="n">
-        <v>5120.32</v>
+        <v>4218.84</v>
       </c>
       <c r="G83" t="n">
-        <v>25388.84</v>
+        <v>49264.21</v>
       </c>
     </row>
     <row r="84">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C84" t="n">
         <v>32768</v>
@@ -2376,13 +2376,13 @@
         <v>96</v>
       </c>
       <c r="E84" t="n">
-        <v>2468.23</v>
+        <v>2248.76</v>
       </c>
       <c r="F84" t="n">
-        <v>4604.01</v>
+        <v>6247.77</v>
       </c>
       <c r="G84" t="n">
-        <v>40612.61</v>
+        <v>81336.75</v>
       </c>
     </row>
     <row r="85">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C85" t="n">
         <v>32768</v>
@@ -2399,13 +2399,13 @@
         <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>3210.79</v>
+        <v>2694.3</v>
       </c>
       <c r="F85" t="n">
-        <v>4928.12</v>
+        <v>8503.35</v>
       </c>
       <c r="G85" t="n">
-        <v>40321.8</v>
+        <v>80958.78</v>
       </c>
     </row>
     <row r="86">
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
         <v>65536</v>
@@ -2422,13 +2422,13 @@
         <v>64</v>
       </c>
       <c r="E86" t="n">
-        <v>2213.55</v>
+        <v>2709.14</v>
       </c>
       <c r="F86" t="n">
-        <v>7185.6</v>
+        <v>8111.71</v>
       </c>
       <c r="G86" t="n">
-        <v>100961.21</v>
+        <v>203827.03</v>
       </c>
     </row>
     <row r="87">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
         <v>65536</v>
@@ -2445,13 +2445,13 @@
         <v>96</v>
       </c>
       <c r="E87" t="n">
-        <v>3095.83</v>
+        <v>4190.7</v>
       </c>
       <c r="F87" t="n">
-        <v>8973.1</v>
+        <v>12575.95</v>
       </c>
       <c r="G87" t="n">
-        <v>165426.01</v>
+        <v>328461.92</v>
       </c>
     </row>
     <row r="88">
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
         <v>65536</v>
@@ -2468,13 +2468,13 @@
         <v>128</v>
       </c>
       <c r="E88" t="n">
-        <v>3515.77</v>
+        <v>5323.41</v>
       </c>
       <c r="F88" t="n">
-        <v>10718.11</v>
+        <v>14018.42</v>
       </c>
       <c r="G88" t="n">
-        <v>165772.47</v>
+        <v>332646.13</v>
       </c>
     </row>
     <row r="89">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
         <v>131072</v>
@@ -2491,13 +2491,13 @@
         <v>64</v>
       </c>
       <c r="E89" t="n">
-        <v>6177.09</v>
+        <v>5301.77</v>
       </c>
       <c r="F89" t="n">
-        <v>14188.37</v>
+        <v>15247.21</v>
       </c>
       <c r="G89" t="n">
-        <v>409891.17</v>
+        <v>823961.15</v>
       </c>
     </row>
     <row r="90">
@@ -2505,22 +2505,20 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="D90" t="n">
-        <v>96</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5900.92</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>17919.47</v>
+        <v>579.0700000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>663660.33</v>
+        <v>536.6900000000001</v>
       </c>
     </row>
     <row r="91">
@@ -2528,22 +2526,20 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7163.02</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>18758.81</v>
+        <v>820.22</v>
       </c>
       <c r="G91" t="n">
-        <v>672400.27</v>
+        <v>572.23</v>
       </c>
     </row>
     <row r="92">
@@ -2551,22 +2547,20 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>4096</v>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
-      </c>
-      <c r="E92" t="n">
-        <v>469.68</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>631.63</v>
+        <v>1803.64</v>
       </c>
       <c r="G92" t="n">
-        <v>1259.67</v>
+        <v>770.74</v>
       </c>
     </row>
     <row r="93">
@@ -2574,22 +2568,20 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
-      </c>
-      <c r="E93" t="n">
-        <v>488.73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>1423.04</v>
+        <v>945.6799999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>1919.27</v>
+        <v>1023.94</v>
       </c>
     </row>
     <row r="94">
@@ -2597,22 +2589,20 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="D94" t="n">
-        <v>128</v>
-      </c>
-      <c r="E94" t="n">
-        <v>937.33</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>1607.48</v>
+        <v>1199.01</v>
       </c>
       <c r="G94" t="n">
-        <v>2191.23</v>
+        <v>1154.8</v>
       </c>
     </row>
     <row r="95">
@@ -2620,22 +2610,20 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
         <v>8192</v>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
-      </c>
-      <c r="E95" t="n">
-        <v>588.91</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1065.2</v>
+        <v>1615.3</v>
       </c>
       <c r="G95" t="n">
-        <v>3851.33</v>
+        <v>1512.86</v>
       </c>
     </row>
     <row r="96">
@@ -2643,22 +2631,20 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D96" t="n">
-        <v>96</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1436.32</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>3146.75</v>
+        <v>1679.94</v>
       </c>
       <c r="G96" t="n">
-        <v>6445.52</v>
+        <v>1604.97</v>
       </c>
     </row>
     <row r="97">
@@ -2666,22 +2652,20 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D97" t="n">
-        <v>128</v>
-      </c>
-      <c r="E97" t="n">
-        <v>900.6799999999999</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>2124.62</v>
+        <v>1798.09</v>
       </c>
       <c r="G97" t="n">
-        <v>5692.42</v>
+        <v>2927.48</v>
       </c>
     </row>
     <row r="98">
@@ -2689,22 +2673,20 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
         <v>16384</v>
       </c>
       <c r="D98" t="n">
-        <v>64</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1238.05</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>2562.22</v>
+        <v>1882.55</v>
       </c>
       <c r="G98" t="n">
-        <v>12946.45</v>
+        <v>2452.63</v>
       </c>
     </row>
     <row r="99">
@@ -2712,22 +2694,20 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="D99" t="n">
-        <v>96</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2384.5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>3295.5</v>
+        <v>5382.45</v>
       </c>
       <c r="G99" t="n">
-        <v>20866.56</v>
+        <v>5591.3</v>
       </c>
     </row>
     <row r="100">
@@ -2735,22 +2715,20 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2109.29</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>4099.15</v>
+        <v>4732.14</v>
       </c>
       <c r="G100" t="n">
-        <v>20390.2</v>
+        <v>8410.700000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2758,22 +2736,20 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>32768</v>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1615.54</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>4218.84</v>
+        <v>4014.69</v>
       </c>
       <c r="G101" t="n">
-        <v>49264.21</v>
+        <v>8315.68</v>
       </c>
     </row>
     <row r="102">
@@ -2781,22 +2757,20 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="D102" t="n">
-        <v>96</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2836.67</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>6247.77</v>
+        <v>6327.3</v>
       </c>
       <c r="G102" t="n">
-        <v>81336.75</v>
+        <v>15137.31</v>
       </c>
     </row>
     <row r="103">
@@ -2804,22 +2778,20 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>32768</v>
+        <v>65536</v>
       </c>
       <c r="D103" t="n">
-        <v>128</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3389.43</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>8503.35</v>
+        <v>7552.1</v>
       </c>
       <c r="G103" t="n">
-        <v>80958.78</v>
+        <v>24742.81</v>
       </c>
     </row>
     <row r="104">
@@ -2827,22 +2799,20 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
         <v>65536</v>
       </c>
       <c r="D104" t="n">
-        <v>64</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3946.5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>8111.71</v>
+        <v>7739.3</v>
       </c>
       <c r="G104" t="n">
-        <v>203827.03</v>
+        <v>22935.9</v>
       </c>
     </row>
     <row r="105">
@@ -2850,22 +2820,20 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D105" t="n">
-        <v>96</v>
-      </c>
-      <c r="E105" t="n">
-        <v>5309.76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>12575.95</v>
+        <v>13280.39</v>
       </c>
       <c r="G105" t="n">
-        <v>328461.92</v>
+        <v>51574.38</v>
       </c>
     </row>
     <row r="106">
@@ -2873,22 +2841,20 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D106" t="n">
-        <v>128</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6932.65</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>14018.42</v>
+        <v>13164.22</v>
       </c>
       <c r="G106" t="n">
-        <v>332646.13</v>
+        <v>83453.92999999999</v>
       </c>
     </row>
     <row r="107">
@@ -2896,22 +2862,20 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
         <v>131072</v>
       </c>
       <c r="D107" t="n">
-        <v>64</v>
-      </c>
-      <c r="E107" t="n">
-        <v>6375.24</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>15247.21</v>
+        <v>14020.09</v>
       </c>
       <c r="G107" t="n">
-        <v>823961.15</v>
+        <v>88426.37</v>
       </c>
     </row>
     <row r="108">
@@ -2927,9 +2891,7 @@
       <c r="D108" t="n">
         <v>96</v>
       </c>
-      <c r="E108" t="n">
-        <v>9338.07</v>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
         <v>27717.09</v>
       </c>
@@ -2950,9 +2912,7 @@
       <c r="D109" t="n">
         <v>128</v>
       </c>
-      <c r="E109" t="n">
-        <v>13761.23</v>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
         <v>29419</v>
       </c>
@@ -3029,9 +2989,7 @@
       <c r="D2" t="n">
         <v>64</v>
       </c>
-      <c r="E2" t="n">
-        <v>423.05</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>579.0700000000001</v>
       </c>
@@ -3052,9 +3010,7 @@
       <c r="D3" t="n">
         <v>96</v>
       </c>
-      <c r="E3" t="n">
-        <v>387.48</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>820.22</v>
       </c>
@@ -3075,9 +3031,7 @@
       <c r="D4" t="n">
         <v>128</v>
       </c>
-      <c r="E4" t="n">
-        <v>407.46</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>1803.64</v>
       </c>
@@ -3098,9 +3052,7 @@
       <c r="D5" t="n">
         <v>64</v>
       </c>
-      <c r="E5" t="n">
-        <v>369.92</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>945.6799999999999</v>
       </c>
@@ -3121,9 +3073,7 @@
       <c r="D6" t="n">
         <v>96</v>
       </c>
-      <c r="E6" t="n">
-        <v>423.11</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>1199.01</v>
       </c>
@@ -3144,9 +3094,7 @@
       <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="E7" t="n">
-        <v>464.77</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>1615.3</v>
       </c>
@@ -3167,9 +3115,7 @@
       <c r="D8" t="n">
         <v>64</v>
       </c>
-      <c r="E8" t="n">
-        <v>510.97</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>1679.94</v>
       </c>
@@ -3190,9 +3136,7 @@
       <c r="D9" t="n">
         <v>96</v>
       </c>
-      <c r="E9" t="n">
-        <v>572.5</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>1798.09</v>
       </c>
@@ -3213,9 +3157,7 @@
       <c r="D10" t="n">
         <v>128</v>
       </c>
-      <c r="E10" t="n">
-        <v>602.14</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>1882.55</v>
       </c>
@@ -3236,9 +3178,7 @@
       <c r="D11" t="n">
         <v>64</v>
       </c>
-      <c r="E11" t="n">
-        <v>1023.69</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>5382.45</v>
       </c>
@@ -3259,9 +3199,7 @@
       <c r="D12" t="n">
         <v>96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1210.06</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>4732.14</v>
       </c>
@@ -3282,9 +3220,7 @@
       <c r="D13" t="n">
         <v>128</v>
       </c>
-      <c r="E13" t="n">
-        <v>869.97</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>4014.69</v>
       </c>
@@ -3305,9 +3241,7 @@
       <c r="D14" t="n">
         <v>64</v>
       </c>
-      <c r="E14" t="n">
-        <v>1471.58</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>6327.3</v>
       </c>
@@ -3328,9 +3262,7 @@
       <c r="D15" t="n">
         <v>96</v>
       </c>
-      <c r="E15" t="n">
-        <v>1399.2</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>7552.1</v>
       </c>
@@ -3351,9 +3283,7 @@
       <c r="D16" t="n">
         <v>128</v>
       </c>
-      <c r="E16" t="n">
-        <v>1450.09</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>7739.3</v>
       </c>
@@ -3374,9 +3304,7 @@
       <c r="D17" t="n">
         <v>64</v>
       </c>
-      <c r="E17" t="n">
-        <v>3542.63</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>13280.39</v>
       </c>
@@ -3397,9 +3325,7 @@
       <c r="D18" t="n">
         <v>96</v>
       </c>
-      <c r="E18" t="n">
-        <v>4343.89</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>13164.22</v>
       </c>
@@ -3420,9 +3346,7 @@
       <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E19" t="n">
-        <v>2994.37</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>14020.09</v>
       </c>
@@ -3500,7 +3424,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>352.14</v>
+        <v>422.95</v>
       </c>
       <c r="F2" t="n">
         <v>1000.19</v>
@@ -3523,7 +3447,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>388.51</v>
+        <v>413.12</v>
       </c>
       <c r="F3" t="n">
         <v>765.01</v>
@@ -3546,7 +3470,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>366.22</v>
+        <v>409.78</v>
       </c>
       <c r="F4" t="n">
         <v>1038.37</v>
@@ -3569,7 +3493,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>399.05</v>
+        <v>421.52</v>
       </c>
       <c r="F5" t="n">
         <v>1627.72</v>
@@ -3592,7 +3516,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>387.11</v>
+        <v>462.03</v>
       </c>
       <c r="F6" t="n">
         <v>1418.8</v>
@@ -3615,7 +3539,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>441.38</v>
+        <v>478.41</v>
       </c>
       <c r="F7" t="n">
         <v>1424</v>
@@ -3638,7 +3562,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>522.24</v>
+        <v>517.9299999999999</v>
       </c>
       <c r="F8" t="n">
         <v>2268.81</v>
@@ -3661,7 +3585,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>764.9299999999999</v>
+        <v>624.53</v>
       </c>
       <c r="F9" t="n">
         <v>2132.52</v>
@@ -3684,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>1035.61</v>
+        <v>631.11</v>
       </c>
       <c r="F10" t="n">
         <v>2176.31</v>
@@ -3707,7 +3631,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>879.86</v>
+        <v>859.6900000000001</v>
       </c>
       <c r="F11" t="n">
         <v>5287.3</v>
@@ -3730,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>1350.82</v>
+        <v>938.4</v>
       </c>
       <c r="F12" t="n">
         <v>4108.92</v>
@@ -3753,7 +3677,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>1017.57</v>
+        <v>991.9299999999999</v>
       </c>
       <c r="F13" t="n">
         <v>4125.13</v>
@@ -3776,7 +3700,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>2282.18</v>
+        <v>1374.73</v>
       </c>
       <c r="F14" t="n">
         <v>6869.75</v>
@@ -3799,7 +3723,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>2426.33</v>
+        <v>1571.14</v>
       </c>
       <c r="F15" t="n">
         <v>6945.8</v>
@@ -3822,7 +3746,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>2861.15</v>
+        <v>1665.53</v>
       </c>
       <c r="F16" t="n">
         <v>8455.120000000001</v>
@@ -3845,7 +3769,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>2961.5</v>
+        <v>2544</v>
       </c>
       <c r="F17" t="n">
         <v>12891.12</v>
@@ -3868,7 +3792,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>3299.87</v>
+        <v>2905.41</v>
       </c>
       <c r="F18" t="n">
         <v>14458.77</v>
@@ -3891,7 +3815,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>3559.18</v>
+        <v>3046.04</v>
       </c>
       <c r="F19" t="n">
         <v>15310.73</v>
@@ -3970,7 +3894,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>441.69</v>
+        <v>472.98</v>
       </c>
       <c r="F2" t="n">
         <v>857.1</v>
@@ -3993,7 +3917,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>425.31</v>
+        <v>422.61</v>
       </c>
       <c r="F3" t="n">
         <v>711.03</v>
@@ -4016,7 +3940,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>449.75</v>
+        <v>371.54</v>
       </c>
       <c r="F4" t="n">
         <v>813.1900000000001</v>
@@ -4039,7 +3963,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>470.22</v>
+        <v>472.11</v>
       </c>
       <c r="F5" t="n">
         <v>1101.27</v>
@@ -4062,7 +3986,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>486.83</v>
+        <v>519.29</v>
       </c>
       <c r="F6" t="n">
         <v>1312.93</v>
@@ -4085,7 +4009,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>530.26</v>
+        <v>518.25</v>
       </c>
       <c r="F7" t="n">
         <v>1271.38</v>
@@ -4108,7 +4032,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>734.67</v>
+        <v>668.48</v>
       </c>
       <c r="F8" t="n">
         <v>1856.35</v>
@@ -4131,7 +4055,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>802.6799999999999</v>
+        <v>682.64</v>
       </c>
       <c r="F9" t="n">
         <v>2462.57</v>
@@ -4154,7 +4078,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>1004.92</v>
+        <v>772.6</v>
       </c>
       <c r="F10" t="n">
         <v>2455.3</v>
@@ -4177,7 +4101,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1268.64</v>
+        <v>920.6900000000001</v>
       </c>
       <c r="F11" t="n">
         <v>3833.93</v>
@@ -4200,7 +4124,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>1154.24</v>
+        <v>1045.87</v>
       </c>
       <c r="F12" t="n">
         <v>6345.68</v>
@@ -4223,7 +4147,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>1929.08</v>
+        <v>1183.63</v>
       </c>
       <c r="F13" t="n">
         <v>3893.59</v>
@@ -4246,7 +4170,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>2220.75</v>
+        <v>1650.76</v>
       </c>
       <c r="F14" t="n">
         <v>9214.129999999999</v>
@@ -4269,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>2059.2</v>
+        <v>1888.21</v>
       </c>
       <c r="F15" t="n">
         <v>8227.049999999999</v>
@@ -4292,7 +4216,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>3159.04</v>
+        <v>2175.52</v>
       </c>
       <c r="F16" t="n">
         <v>10054.29</v>
@@ -4315,7 +4239,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>2937.44</v>
+        <v>2928.81</v>
       </c>
       <c r="F17" t="n">
         <v>13152.35</v>
@@ -4338,7 +4262,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>4667.57</v>
+        <v>3494.25</v>
       </c>
       <c r="F18" t="n">
         <v>15520.04</v>
@@ -4361,7 +4285,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>6784.33</v>
+        <v>4082.79</v>
       </c>
       <c r="F19" t="n">
         <v>18328.72</v>
@@ -4440,7 +4364,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>400.85</v>
+        <v>421.42</v>
       </c>
       <c r="F2" t="n">
         <v>647.77</v>
@@ -4463,7 +4387,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>605.54</v>
+        <v>373.8</v>
       </c>
       <c r="F3" t="n">
         <v>888.9</v>
@@ -4486,7 +4410,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>546.26</v>
+        <v>455.7</v>
       </c>
       <c r="F4" t="n">
         <v>1043.23</v>
@@ -4509,7 +4433,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>499.16</v>
+        <v>481.21</v>
       </c>
       <c r="F5" t="n">
         <v>1294.19</v>
@@ -4532,7 +4456,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>495.11</v>
+        <v>532.26</v>
       </c>
       <c r="F6" t="n">
         <v>1183.78</v>
@@ -4555,7 +4479,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>585.47</v>
+        <v>577.85</v>
       </c>
       <c r="F7" t="n">
         <v>1261.8</v>
@@ -4578,7 +4502,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>996.89</v>
+        <v>668.38</v>
       </c>
       <c r="F8" t="n">
         <v>1968.62</v>
@@ -4601,7 +4525,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>954.61</v>
+        <v>735.4299999999999</v>
       </c>
       <c r="F9" t="n">
         <v>2519.25</v>
@@ -4624,7 +4548,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>951.55</v>
+        <v>830.85</v>
       </c>
       <c r="F10" t="n">
         <v>3533.11</v>
@@ -4647,7 +4571,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1854.51</v>
+        <v>1067.52</v>
       </c>
       <c r="F11" t="n">
         <v>3464.37</v>
@@ -4670,7 +4594,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>1254.02</v>
+        <v>1197.94</v>
       </c>
       <c r="F12" t="n">
         <v>4032.67</v>
@@ -4693,7 +4617,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>1457.39</v>
+        <v>1459.75</v>
       </c>
       <c r="F13" t="n">
         <v>4468.42</v>
@@ -4716,7 +4640,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>2972.04</v>
+        <v>1757.97</v>
       </c>
       <c r="F14" t="n">
         <v>7537.78</v>
@@ -4739,7 +4663,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>2373.6</v>
+        <v>2164.36</v>
       </c>
       <c r="F15" t="n">
         <v>11073.59</v>
@@ -4762,7 +4686,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>2778.2</v>
+        <v>2655.68</v>
       </c>
       <c r="F16" t="n">
         <v>11726.39</v>
@@ -4785,7 +4709,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>3359.45</v>
+        <v>3289.12</v>
       </c>
       <c r="F17" t="n">
         <v>13610.45</v>
@@ -4808,7 +4732,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>5052</v>
+        <v>4216.73</v>
       </c>
       <c r="F18" t="n">
         <v>18612.3</v>
@@ -4831,7 +4755,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>10594.12</v>
+        <v>5036.18</v>
       </c>
       <c r="F19" t="n">
         <v>17268.7</v>
@@ -4910,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>395.03</v>
+        <v>387.07</v>
       </c>
       <c r="F2" t="n">
         <v>651.35</v>
@@ -4933,7 +4857,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>413.43</v>
+        <v>443.48</v>
       </c>
       <c r="F3" t="n">
         <v>1311.85</v>
@@ -4956,7 +4880,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>495.87</v>
+        <v>433.3</v>
       </c>
       <c r="F4" t="n">
         <v>833.59</v>
@@ -4979,7 +4903,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>491.15</v>
+        <v>477.78</v>
       </c>
       <c r="F5" t="n">
         <v>1615.92</v>
@@ -5002,7 +4926,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>540.14</v>
+        <v>579.33</v>
       </c>
       <c r="F6" t="n">
         <v>2163.52</v>
@@ -5025,7 +4949,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>708.46</v>
+        <v>626.05</v>
       </c>
       <c r="F7" t="n">
         <v>1657.31</v>
@@ -5048,7 +4972,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>1056.78</v>
+        <v>661.71</v>
       </c>
       <c r="F8" t="n">
         <v>1908.54</v>
@@ -5071,7 +4995,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>985.7</v>
+        <v>879.34</v>
       </c>
       <c r="F9" t="n">
         <v>3203.42</v>
@@ -5094,7 +5018,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>1310.73</v>
+        <v>978.73</v>
       </c>
       <c r="F10" t="n">
         <v>3512.12</v>
@@ -5117,7 +5041,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>2024.2</v>
+        <v>1119.69</v>
       </c>
       <c r="F11" t="n">
         <v>5120.32</v>
@@ -5140,7 +5064,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>2468.23</v>
+        <v>1464.08</v>
       </c>
       <c r="F12" t="n">
         <v>4604.01</v>
@@ -5163,7 +5087,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>3210.79</v>
+        <v>1708.11</v>
       </c>
       <c r="F13" t="n">
         <v>4928.12</v>
@@ -5186,7 +5110,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>2213.55</v>
+        <v>1959.4</v>
       </c>
       <c r="F14" t="n">
         <v>7185.6</v>
@@ -5209,7 +5133,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>3095.83</v>
+        <v>2613.46</v>
       </c>
       <c r="F15" t="n">
         <v>8973.1</v>
@@ -5232,7 +5156,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>3515.77</v>
+        <v>3147.48</v>
       </c>
       <c r="F16" t="n">
         <v>10718.11</v>
@@ -5255,7 +5179,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>6177.09</v>
+        <v>3606.32</v>
       </c>
       <c r="F17" t="n">
         <v>14188.37</v>
@@ -5278,7 +5202,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>5900.92</v>
+        <v>5040.26</v>
       </c>
       <c r="F18" t="n">
         <v>17919.47</v>
@@ -5301,7 +5225,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>7163.02</v>
+        <v>6230.83</v>
       </c>
       <c r="F19" t="n">
         <v>18758.81</v>
@@ -5380,7 +5304,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>469.68</v>
+        <v>461.7</v>
       </c>
       <c r="F2" t="n">
         <v>631.63</v>
@@ -5403,7 +5327,7 @@
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>488.73</v>
+        <v>548.72</v>
       </c>
       <c r="F3" t="n">
         <v>1423.04</v>
@@ -5426,7 +5350,7 @@
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>937.33</v>
+        <v>578.66</v>
       </c>
       <c r="F4" t="n">
         <v>1607.48</v>
@@ -5449,7 +5373,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>588.91</v>
+        <v>568.65</v>
       </c>
       <c r="F5" t="n">
         <v>1065.2</v>
@@ -5472,7 +5396,7 @@
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1436.32</v>
+        <v>759.3200000000001</v>
       </c>
       <c r="F6" t="n">
         <v>3146.75</v>
@@ -5495,7 +5419,7 @@
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>900.6799999999999</v>
+        <v>922.49</v>
       </c>
       <c r="F7" t="n">
         <v>2124.62</v>
@@ -5518,7 +5442,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>1238.05</v>
+        <v>894.3</v>
       </c>
       <c r="F8" t="n">
         <v>2562.22</v>
@@ -5541,7 +5465,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>2384.5</v>
+        <v>1241.91</v>
       </c>
       <c r="F9" t="n">
         <v>3295.5</v>
@@ -5564,7 +5488,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>2109.29</v>
+        <v>1500.29</v>
       </c>
       <c r="F10" t="n">
         <v>4099.15</v>
@@ -5587,7 +5511,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1615.54</v>
+        <v>1510.45</v>
       </c>
       <c r="F11" t="n">
         <v>4218.84</v>
@@ -5610,7 +5534,7 @@
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>2836.67</v>
+        <v>2248.76</v>
       </c>
       <c r="F12" t="n">
         <v>6247.77</v>
@@ -5633,7 +5557,7 @@
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>3389.43</v>
+        <v>2694.3</v>
       </c>
       <c r="F13" t="n">
         <v>8503.35</v>
@@ -5656,7 +5580,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>3946.5</v>
+        <v>2709.14</v>
       </c>
       <c r="F14" t="n">
         <v>8111.71</v>
@@ -5679,7 +5603,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>5309.76</v>
+        <v>4190.7</v>
       </c>
       <c r="F15" t="n">
         <v>12575.95</v>
@@ -5702,7 +5626,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>6932.65</v>
+        <v>5323.41</v>
       </c>
       <c r="F16" t="n">
         <v>14018.42</v>
@@ -5725,7 +5649,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>6375.24</v>
+        <v>5301.77</v>
       </c>
       <c r="F17" t="n">
         <v>15247.21</v>
@@ -5747,9 +5671,7 @@
       <c r="D18" t="n">
         <v>96</v>
       </c>
-      <c r="E18" t="n">
-        <v>9338.07</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>27717.09</v>
       </c>
@@ -5770,9 +5692,7 @@
       <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E19" t="n">
-        <v>13761.23</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>29419</v>
       </c>
